--- a/pred_ohlcv/54_21/2019-10-17 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 BAT ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>50065.87823870967</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>50130.15043870966</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>51442.24653870967</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>33301.96363870967</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>33317.66343870967</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>33334.47033870967</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>33334.47033870967</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>34132.4135220896</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>34545.4056220896</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>34545.4056220896</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>34545.4056220896</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>34545.4056220896</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>34545.4056220896</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>34545.4056220896</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>32755.6040220896</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>47088.2373220896</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>47217.4451220896</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>48047.2137220896</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>49124.0197220896</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>49109.0197220896</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>52109.0195220896</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>44072.17262208959</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>43832.17852208959</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>44217.23962208959</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>44217.23962208959</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>44217.23962208959</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>44265.14662208959</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>44052.26502208959</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>42899.03232208959</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>43833.15082208958</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>43833.15082208958</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>43833.15082208958</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>44455.03082208958</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>42610.46372208958</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>42610.46372208958</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>44148.46372208958</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>44148.46372208958</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>44507.71342208958</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>32261.20032208959</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>32261.20032208959</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>32299.18492208959</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>32257.12122208959</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>32257.12122208959</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>32257.12122208959</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>32259.53872208959</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>32238.50692208959</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>32240.87572208959</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>32240.87572208959</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>25255.58032208959</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>31621.18102208959</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>30328.54262208959</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>32338.54262208959</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>26606.16302208959</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>26606.16302208959</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>29991.44592208959</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>29991.44592208959</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>30000.44592208959</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>56956.18093658773</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>65504.75113658773</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>65541.23883658773</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>49961.69343658772</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>48851.69343658772</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>47370.44543658772</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>48427.47333658773</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>48427.47333658773</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>41039.05293658772</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>41054.33713658772</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>33436.48453658773</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>35923.91083658773</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>67413.41073658773</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>67381.32343658773</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>67381.32343658773</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>68438.25473658773</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>68438.25473658773</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>66227.25473658773</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>71414.90283658773</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>68220.90283658773</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>68220.90283658773</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>67860.38233658773</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>52058.38083658773</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>52058.38083658773</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-17 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>58955.48723870967</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>58955.48723870967</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>53383.90593870967</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>53407.10073870967</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>53414.81303870967</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>50065.87823870967</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>50130.15043870966</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>51442.24653870967</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>33301.96363870967</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>33317.66343870967</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>33334.47033870967</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>33334.47033870967</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>34132.4135220896</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>34132.4135220896</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>34545.4056220896</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>32796.4133220896</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>32796.4133220896</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>32352.5379220896</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>31930.6511220896</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>47217.4451220896</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>26606.16302208959</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>56956.18093658773</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>58554.75113658773</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>58554.75113658773</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>65504.75113658773</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>65541.23883658773</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>49961.69343658772</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>48851.69343658772</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>47370.44543658772</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>48427.47333658773</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>48427.47333658773</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>41039.05293658772</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>41054.33713658772</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>67381.32343658773</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>67381.32343658773</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>68438.25473658773</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>68438.25473658773</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>66227.25473658773</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>71414.90283658773</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>68220.90283658773</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>68220.90283658773</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>67860.38233658773</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>52058.38083658773</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
